--- a/rgblab.xlsx
+++ b/rgblab.xlsx
@@ -1,10 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="19126"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\WCC4\Desktop\color scale\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{25F32D29-80D6-4C4C-8329-6940124C678E}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="120" yWindow="75" windowWidth="18195" windowHeight="13350"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23895" windowHeight="12120" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -15,8 +21,55 @@
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
+  <si>
+    <t>R</t>
+  </si>
+  <si>
+    <t>G</t>
+  </si>
+  <si>
+    <t>B</t>
+  </si>
+  <si>
+    <t>L*</t>
+  </si>
+  <si>
+    <t>a*</t>
+  </si>
+  <si>
+    <t>b*</t>
+  </si>
+  <si>
+    <t>Step 0</t>
+  </si>
+  <si>
+    <t>Step 1</t>
+  </si>
+  <si>
+    <t>Step 2</t>
+  </si>
+  <si>
+    <t>Step 3</t>
+  </si>
+  <si>
+    <t>Step 4</t>
+  </si>
+  <si>
+    <t>Step 5</t>
+  </si>
+  <si>
+    <t>Step 6</t>
+  </si>
+  <si>
+    <t>Step 7</t>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -34,7 +87,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="9">
     <border>
       <left/>
       <right/>
@@ -42,12 +95,110 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -57,6 +208,9 @@
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -105,7 +259,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -138,9 +292,26 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -173,6 +344,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -348,172 +536,221 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F8"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:G9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:F8"/>
+      <selection activeCell="J4" sqref="J4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="9.140625" style="1"/>
+    <col min="5" max="5" width="11.5703125" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="11.28515625" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A1">
-        <v>0</v>
-      </c>
-      <c r="B1">
-        <v>0</v>
-      </c>
-      <c r="C1">
-        <v>0</v>
-      </c>
-      <c r="D1">
-        <v>0</v>
-      </c>
-      <c r="E1">
-        <v>0</v>
-      </c>
-      <c r="F1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A2">
+    <row r="1" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A2" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B2" s="2">
+        <v>0</v>
+      </c>
+      <c r="C2" s="3">
+        <v>0</v>
+      </c>
+      <c r="D2" s="4">
+        <v>0</v>
+      </c>
+      <c r="E2" s="2">
+        <v>0</v>
+      </c>
+      <c r="F2" s="3">
+        <v>0</v>
+      </c>
+      <c r="G2" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A3" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B3" s="5">
         <v>96</v>
       </c>
-      <c r="B2">
-        <v>0</v>
-      </c>
-      <c r="C2">
+      <c r="C3" s="6">
+        <v>0</v>
+      </c>
+      <c r="D3" s="7">
         <v>80</v>
       </c>
-      <c r="D2">
+      <c r="E3" s="11">
         <v>20.30881043801881</v>
       </c>
-      <c r="E2">
+      <c r="F3" s="12">
         <v>45.546640143330571</v>
       </c>
-      <c r="F2">
+      <c r="G3" s="13">
         <v>-20.636950846227229</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A3">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A4" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B4" s="5">
         <v>96</v>
       </c>
-      <c r="B3">
+      <c r="C4" s="6">
         <v>96</v>
       </c>
-      <c r="C3">
+      <c r="D4" s="7">
         <v>176</v>
       </c>
-      <c r="D3">
+      <c r="E4" s="11">
         <v>44.213327468035686</v>
       </c>
-      <c r="E3">
+      <c r="F4" s="12">
         <v>21.291066940492321</v>
       </c>
-      <c r="F3">
+      <c r="G4" s="13">
         <v>-42.77986491703394</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A4">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A5" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B5" s="5">
         <v>80</v>
       </c>
-      <c r="B4">
+      <c r="C5" s="6">
         <v>192</v>
       </c>
-      <c r="C4">
+      <c r="D5" s="7">
         <v>80</v>
       </c>
-      <c r="D4">
+      <c r="E5" s="11">
         <v>69.456563155394775</v>
       </c>
-      <c r="E4">
+      <c r="F5" s="12">
         <v>-54.063086468226771</v>
       </c>
-      <c r="F4">
+      <c r="G5" s="13">
         <v>46.246727520322885</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A5">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A6" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B6" s="5">
         <v>224</v>
       </c>
-      <c r="B5">
+      <c r="C6" s="6">
         <v>224</v>
       </c>
-      <c r="C5">
+      <c r="D6" s="7">
         <v>80</v>
       </c>
-      <c r="D5">
+      <c r="E6" s="11">
         <v>86.868917151666849</v>
       </c>
-      <c r="E5">
+      <c r="F6" s="12">
         <v>-17.250121222599557</v>
       </c>
-      <c r="F5">
+      <c r="G6" s="13">
         <v>67.69785137585589</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A6">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A7" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B7" s="5">
         <v>208</v>
       </c>
-      <c r="B6">
+      <c r="C7" s="6">
         <v>144</v>
       </c>
-      <c r="C6">
-        <v>0</v>
-      </c>
-      <c r="D6">
+      <c r="D7" s="7">
+        <v>0</v>
+      </c>
+      <c r="E7" s="11">
         <v>64.451089013678882</v>
       </c>
-      <c r="E6">
+      <c r="F7" s="12">
         <v>14.953254843484864</v>
       </c>
-      <c r="F6">
+      <c r="G7" s="13">
         <v>69.337488921307028</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A7">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A8" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B8" s="5">
         <v>255</v>
       </c>
-      <c r="B7">
-        <v>0</v>
-      </c>
-      <c r="C7">
-        <v>0</v>
-      </c>
-      <c r="D7">
+      <c r="C8" s="6">
+        <v>0</v>
+      </c>
+      <c r="D8" s="7">
+        <v>0</v>
+      </c>
+      <c r="E8" s="11">
         <v>53.240788867616104</v>
       </c>
-      <c r="E7">
+      <c r="F8" s="12">
         <v>80.092494286414734</v>
       </c>
-      <c r="F7">
+      <c r="G8" s="13">
         <v>67.20319139735453</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A8">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A9" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B9" s="8">
         <v>255</v>
       </c>
-      <c r="B8">
+      <c r="C9" s="9">
         <v>255</v>
       </c>
-      <c r="C8">
+      <c r="D9" s="10">
         <v>255</v>
       </c>
-      <c r="D8">
+      <c r="E9" s="14">
         <v>100</v>
       </c>
-      <c r="E8">
-        <v>0</v>
-      </c>
-      <c r="F8">
+      <c r="F9" s="15">
+        <v>0</v>
+      </c>
+      <c r="G9" s="16">
         <v>0</v>
       </c>
     </row>
@@ -523,7 +760,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -535,7 +772,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
